--- a/NoteBook/task and schedule plans and actual/TASK_Layne.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Layne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17100" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
-    <t>TSPi Example Task Planning Template - Form TASK</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>LAU1</t>
   </si>
   <si>
-    <t>Fabián Eduardo Becerra Pérez</t>
-  </si>
-  <si>
     <t>Generar listado de tareas del ciclo</t>
   </si>
   <si>
@@ -204,15 +198,28 @@
   </si>
   <si>
     <t>Development Manager</t>
+  </si>
+  <si>
+    <t>Layne Granados Mogollón</t>
+  </si>
+  <si>
+    <t>TSPi Example Task Development Template - Form TASK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -273,12 +280,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -448,136 +473,198 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="41">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -588,6 +675,16 @@
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -598,6 +695,16 @@
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,11 +1006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
@@ -912,1249 +1019,1349 @@
     <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="16" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="16" customWidth="1"/>
     <col min="14" max="15" width="11.5" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="38"/>
       <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="40">
         <v>41719</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="L8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="27" t="s">
-        <v>45</v>
+      <c r="A14" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18">
+        <v>23</v>
+      </c>
+      <c r="D14" s="15">
         <v>2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f>D14</f>
         <v>2</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17">
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="19">
         <v>2</v>
       </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" ref="I14:I37" si="0">ROUND(D14/TOTAL_HORAS*100,1)</f>
         <v>6.6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f>I14</f>
         <v>6.6</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="14">
         <v>2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <f>K14</f>
         <v>2</v>
       </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-      <c r="N14" s="16">
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13">
         <v>10</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <f>D15+E14</f>
         <v>3</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="19">
         <v>5</v>
       </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f>SUM(I15+J14)</f>
         <v>9.8999999999999986</v>
       </c>
-      <c r="K15" s="17">
-        <v>1</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
         <f>K15+L14</f>
         <v>3</v>
       </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13">
         <v>5</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="18">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15">
         <v>0.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" ref="E16:E37" si="1">D16+E15</f>
         <v>3.5</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="F16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f>SUM(I16+J15)</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="14">
         <v>0.5</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <f t="shared" ref="L16:L25" si="2">K16+L15</f>
         <v>3.5</v>
       </c>
-      <c r="M16" s="9">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16">
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="13">
         <v>2.5</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="14">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7"/>
+      <c r="A17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="F17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f t="shared" ref="J17:J37" si="3">J16+I17</f>
         <v>14.899999999999999</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="14">
         <f>(G17*N17)/O17</f>
         <v>1.4</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="M17" s="9">
-        <v>3</v>
-      </c>
-      <c r="N17" s="16">
+      <c r="M17" s="14">
+        <v>3</v>
+      </c>
+      <c r="N17" s="13">
         <v>7</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>3</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="F18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>3</v>
+      </c>
+      <c r="I18" s="14">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <f t="shared" ref="K18:K25" si="4">(D18*N18)/O18</f>
         <v>1.4545454545454546</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="14">
         <f t="shared" si="2"/>
         <v>6.3545454545454554</v>
       </c>
-      <c r="M18" s="9">
-        <v>3</v>
-      </c>
-      <c r="N18" s="16">
+      <c r="M18" s="14">
+        <v>3</v>
+      </c>
+      <c r="N18" s="13">
         <v>4</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7"/>
+      <c r="A19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="F19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <f t="shared" si="3"/>
         <v>24.8</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="14">
         <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="14">
         <f t="shared" si="2"/>
         <v>7.7831168831168842</v>
       </c>
-      <c r="M19" s="9">
-        <v>3</v>
-      </c>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="O19" s="17">
+      <c r="M19" s="14">
+        <v>3</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
         <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="29" thickBot="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="18">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15">
         <v>0.5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="17">
+      <c r="F20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="19">
         <v>0.5</v>
       </c>
-      <c r="H20" s="9">
-        <v>3</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="H20" s="8">
+        <v>3</v>
+      </c>
+      <c r="I20" s="14">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="14">
         <f t="shared" si="2"/>
         <v>8.1164502164502181</v>
       </c>
-      <c r="M20" s="9">
-        <v>3</v>
-      </c>
-      <c r="N20" s="16">
+      <c r="M20" s="14">
+        <v>3</v>
+      </c>
+      <c r="N20" s="13">
         <v>2</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="18">
+        <v>29</v>
+      </c>
+      <c r="D21" s="15">
         <v>0.2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>3</v>
-      </c>
-      <c r="I21" s="17">
+      <c r="F21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <f t="shared" si="3"/>
         <v>27.2</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <f t="shared" si="4"/>
         <v>0.17391304347826089</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="14">
         <f t="shared" si="2"/>
         <v>8.2903632599284798</v>
       </c>
-      <c r="M21" s="9">
-        <v>3</v>
-      </c>
-      <c r="N21" s="16">
+      <c r="M21" s="14">
+        <v>3</v>
+      </c>
+      <c r="N21" s="13">
         <v>2</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="18">
+        <v>45</v>
+      </c>
+      <c r="D22" s="15">
         <v>0.5</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>3</v>
-      </c>
-      <c r="I22" s="17">
+      <c r="F22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="14">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <f t="shared" si="3"/>
         <v>28.9</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="14">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="14">
         <f t="shared" si="2"/>
         <v>8.6236965932618137</v>
       </c>
-      <c r="M22" s="9">
-        <v>3</v>
-      </c>
-      <c r="N22" s="16">
+      <c r="M22" s="14">
+        <v>3</v>
+      </c>
+      <c r="N22" s="13">
         <v>2</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="18">
+        <v>30</v>
+      </c>
+      <c r="D23" s="15">
         <v>0.3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="17">
-        <v>3</v>
-      </c>
-      <c r="H23" s="9">
-        <v>3</v>
-      </c>
-      <c r="I23" s="17">
+      <c r="F23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="19">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3</v>
+      </c>
+      <c r="I23" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f t="shared" si="3"/>
         <v>29.9</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="14">
         <f t="shared" si="4"/>
         <v>0.40909090909090912</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="14">
         <f t="shared" si="2"/>
         <v>9.032787502352722</v>
       </c>
-      <c r="M23" s="9">
-        <v>3</v>
-      </c>
-      <c r="N23" s="16">
-        <v>3</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="M23" s="14">
+        <v>3</v>
+      </c>
+      <c r="N23" s="13">
+        <v>3</v>
+      </c>
+      <c r="O23" s="14">
         <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="18">
+        <v>31</v>
+      </c>
+      <c r="D24" s="15">
         <v>0.2</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="19">
         <v>2</v>
       </c>
-      <c r="H24" s="9">
-        <v>3</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="H24" s="8">
+        <v>3</v>
+      </c>
+      <c r="I24" s="14">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <f t="shared" si="3"/>
         <v>30.599999999999998</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="14">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14">
         <f t="shared" si="2"/>
         <v>9.2470732166384355</v>
       </c>
-      <c r="M24" s="9">
-        <v>3</v>
-      </c>
-      <c r="N24" s="16">
-        <v>3</v>
-      </c>
-      <c r="O24" s="17">
+      <c r="M24" s="14">
+        <v>3</v>
+      </c>
+      <c r="N24" s="13">
+        <v>3</v>
+      </c>
+      <c r="O24" s="14">
         <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="18">
-        <v>3</v>
-      </c>
-      <c r="E25" s="9">
+        <v>32</v>
+      </c>
+      <c r="D25" s="15">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="17">
+      <c r="F25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="9">
-        <v>3</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+      <c r="I25" s="14">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="14">
         <f t="shared" si="4"/>
         <v>2.4</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="14">
         <f t="shared" si="2"/>
         <v>11.647073216638436</v>
       </c>
-      <c r="M25" s="9">
-        <v>3</v>
-      </c>
-      <c r="N25" s="16">
+      <c r="M25" s="14">
+        <v>3</v>
+      </c>
+      <c r="N25" s="13">
         <v>12</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="A26" s="35"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="15">
         <v>2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="18">
         <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
-      <c r="H26" s="17">
+      <c r="F26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
         <v>4</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="19">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="18">
         <f t="shared" si="3"/>
         <v>47.1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="17">
+      <c r="K26" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="L26" s="20">
+        <f>K26+L25</f>
+        <v>13.047073216638436</v>
+      </c>
+      <c r="M26" s="18">
         <v>4</v>
       </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17">
+      <c r="N26" s="13"/>
+      <c r="O26" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="A27" s="35"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="17">
+      <c r="F27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="18">
         <v>2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="18">
         <v>4</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="19">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="18">
         <f t="shared" si="3"/>
         <v>50.4</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="17">
+      <c r="K27" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="L27" s="20">
+        <f>K27+L26</f>
+        <v>17.847073216638435</v>
+      </c>
+      <c r="M27" s="18">
         <v>4</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="A28" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="15">
         <v>2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="18">
         <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="F28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="18">
         <v>2</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="17">
+      <c r="H28" s="18">
+        <v>4</v>
+      </c>
+      <c r="I28" s="19">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="18">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="17">
+      <c r="K28" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="L28" s="20">
+        <f>K28+L27</f>
+        <v>18.747073216638434</v>
+      </c>
+      <c r="M28" s="18">
+        <v>4</v>
+      </c>
+      <c r="O28" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="A29" s="35"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="15">
         <v>0.5</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="18">
         <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="17">
+      <c r="F29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="18">
         <v>0.7</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="17">
+      <c r="H29" s="18">
+        <v>4</v>
+      </c>
+      <c r="I29" s="19">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="18">
         <f t="shared" si="3"/>
         <v>58.7</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="O29" s="17">
+      <c r="K29" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="20">
+        <f>K29+L28</f>
+        <v>19.247073216638434</v>
+      </c>
+      <c r="M29" s="18">
+        <v>4</v>
+      </c>
+      <c r="O29" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="18">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="A30" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="22">
+        <v>1</v>
+      </c>
+      <c r="E30" s="23">
         <f t="shared" si="1"/>
         <v>18.7</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="17">
+      <c r="F30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="23">
+        <v>5</v>
+      </c>
+      <c r="I30" s="23">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="23">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="O30" s="17">
+      <c r="K30" s="23">
+        <v>8.9</v>
+      </c>
+      <c r="L30" s="24">
+        <f>K30+L29</f>
+        <v>28.147073216638432</v>
+      </c>
+      <c r="M30" s="23">
+        <v>5</v>
+      </c>
+      <c r="O30" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="A31" s="35"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="22">
         <v>5</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="23">
         <f t="shared" si="1"/>
         <v>23.7</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="F31" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="23">
         <v>646</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="17">
+      <c r="H31" s="23">
+        <v>5</v>
+      </c>
+      <c r="I31" s="23">
         <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="23">
         <f t="shared" si="3"/>
         <v>78.599999999999994</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="O31" s="17">
+      <c r="K31" s="23">
+        <v>18.3</v>
+      </c>
+      <c r="L31" s="24">
+        <f>L30+K31</f>
+        <v>46.447073216638429</v>
+      </c>
+      <c r="M31" s="23">
+        <v>5</v>
+      </c>
+      <c r="O31" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="18">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="A32" s="35"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="22">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23">
         <f t="shared" si="1"/>
         <v>24.7</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="17">
+      <c r="F32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23">
+        <v>5</v>
+      </c>
+      <c r="I32" s="23">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="23">
         <f t="shared" si="3"/>
         <v>81.899999999999991</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="O32" s="17">
+      <c r="K32" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="L32" s="24">
+        <f t="shared" ref="L32:L37" si="5">K32+L31</f>
+        <v>49.347073216638428</v>
+      </c>
+      <c r="M32" s="23">
+        <v>5</v>
+      </c>
+      <c r="O32" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="A33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27">
         <f t="shared" si="1"/>
         <v>25.7</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="17">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27">
         <v>6</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="17">
+      <c r="H33" s="27">
+        <v>6</v>
+      </c>
+      <c r="I33" s="27">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="27">
         <f t="shared" si="3"/>
         <v>85.199999999999989</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="O33" s="17">
+      <c r="K33" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="L33" s="28">
+        <f t="shared" si="5"/>
+        <v>51.047073216638431</v>
+      </c>
+      <c r="M33" s="27">
+        <v>6</v>
+      </c>
+      <c r="O33" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="18">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="A34" s="35"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27">
         <f t="shared" si="1"/>
         <v>26.7</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="17">
+      <c r="F34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27">
+        <v>6</v>
+      </c>
+      <c r="I34" s="27">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="27">
         <f t="shared" si="3"/>
         <v>88.499999999999986</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="O34" s="17">
+      <c r="K34" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="L34" s="28">
+        <f t="shared" si="5"/>
+        <v>52.247073216638434</v>
+      </c>
+      <c r="M34" s="27">
+        <v>6</v>
+      </c>
+      <c r="O34" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="A35" s="35"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+      <c r="E35" s="27">
         <f t="shared" si="1"/>
         <v>27.7</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="17">
+      <c r="F35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="27">
         <v>10</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="17">
+      <c r="H35" s="27">
+        <v>6</v>
+      </c>
+      <c r="I35" s="27">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="27">
         <f t="shared" si="3"/>
         <v>91.799999999999983</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="17">
+      <c r="K35" s="27">
+        <v>1</v>
+      </c>
+      <c r="L35" s="28">
+        <f t="shared" si="5"/>
+        <v>53.247073216638434</v>
+      </c>
+      <c r="M35" s="27">
+        <v>6</v>
+      </c>
+      <c r="O35" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="18">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="A36" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27">
         <f t="shared" si="1"/>
         <v>28.7</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="17">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27">
         <v>5</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="17">
+      <c r="H36" s="27">
+        <v>6</v>
+      </c>
+      <c r="I36" s="27">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="27">
         <f t="shared" si="3"/>
         <v>95.09999999999998</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="O36" s="17">
+      <c r="K36" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="L36" s="28">
+        <f t="shared" si="5"/>
+        <v>56.047073216638431</v>
+      </c>
+      <c r="M36" s="27">
+        <v>6</v>
+      </c>
+      <c r="O36" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="18">
+      <c r="A37" s="42"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="26">
         <v>1.5</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="27">
         <f t="shared" si="1"/>
         <v>30.2</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="F37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="30">
         <v>5</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="17">
+      <c r="H37" s="27">
+        <v>6</v>
+      </c>
+      <c r="I37" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="27">
         <f t="shared" si="3"/>
         <v>100.09999999999998</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="O37" s="17">
+      <c r="K37" s="27">
+        <v>3.4</v>
+      </c>
+      <c r="L37" s="28">
+        <f t="shared" si="5"/>
+        <v>59.447073216638429</v>
+      </c>
+      <c r="M37" s="27">
+        <v>6</v>
+      </c>
+      <c r="O37" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11">
         <f>SUM(D14:D37)</f>
         <v>30.2</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="9">
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="8">
         <f>SUM(I14:I37)</f>
         <v>100.09999999999998</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2192,7 +2399,6 @@
     <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NoteBook/task and schedule plans and actual/TASK_Layne.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Layne.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabiánEduardo\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="TOTAL_HORAS">Hoja1!$D$38</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -609,18 +614,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,33 +667,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -712,6 +717,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1006,227 +1014,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="16" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="16" customWidth="1"/>
-    <col min="14" max="15" width="11.5" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="7.42578125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="49">
         <v>41719</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="E5" s="44">
+        <v>1</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="43" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1234,8 +1242,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="4"/>
@@ -1283,8 +1291,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5" t="s">
         <v>24</v>
@@ -1330,8 +1338,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -1377,8 +1385,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="6"/>
@@ -1427,8 +1435,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
-      <c r="A18" s="35"/>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -1475,8 +1483,8 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="6"/>
@@ -1525,8 +1533,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" thickBot="1">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5" t="s">
         <v>51</v>
@@ -1573,8 +1581,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
         <v>29</v>
@@ -1621,8 +1629,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
         <v>45</v>
@@ -1669,8 +1677,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5" t="s">
         <v>30</v>
@@ -1717,8 +1725,8 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1">
-      <c r="A24" s="35"/>
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5" t="s">
         <v>31</v>
@@ -1765,8 +1773,8 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1">
-      <c r="A25" s="42"/>
+    <row r="25" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5" t="s">
         <v>32</v>
@@ -1813,8 +1821,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
       <c r="B26" s="6"/>
       <c r="C26" s="31" t="s">
         <v>52</v>
@@ -1858,8 +1866,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
-      <c r="A27" s="35"/>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
       <c r="B27" s="6"/>
       <c r="C27" s="31" t="s">
         <v>53</v>
@@ -1902,8 +1910,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="6"/>
@@ -1948,8 +1956,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1">
-      <c r="A29" s="35"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="6"/>
       <c r="C29" s="31" t="s">
         <v>33</v>
@@ -1992,8 +2000,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="6"/>
@@ -2025,11 +2033,11 @@
         <v>62</v>
       </c>
       <c r="K30" s="23">
-        <v>8.9</v>
+        <v>4</v>
       </c>
       <c r="L30" s="24">
         <f>K30+L29</f>
-        <v>28.147073216638432</v>
+        <v>23.247073216638434</v>
       </c>
       <c r="M30" s="23">
         <v>5</v>
@@ -2038,8 +2046,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="6"/>
       <c r="C31" s="21" t="s">
         <v>34</v>
@@ -2069,11 +2077,11 @@
         <v>78.599999999999994</v>
       </c>
       <c r="K31" s="23">
-        <v>18.3</v>
+        <v>8</v>
       </c>
       <c r="L31" s="24">
         <f>L30+K31</f>
-        <v>46.447073216638429</v>
+        <v>31.247073216638434</v>
       </c>
       <c r="M31" s="23">
         <v>5</v>
@@ -2082,8 +2090,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" thickBot="1">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="6"/>
       <c r="C32" s="21" t="s">
         <v>46</v>
@@ -2115,7 +2123,7 @@
       </c>
       <c r="L32" s="24">
         <f t="shared" ref="L32:L37" si="5">K32+L31</f>
-        <v>49.347073216638428</v>
+        <v>34.147073216638432</v>
       </c>
       <c r="M32" s="23">
         <v>5</v>
@@ -2124,8 +2132,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="6"/>
@@ -2159,7 +2167,7 @@
       </c>
       <c r="L33" s="28">
         <f t="shared" si="5"/>
-        <v>51.047073216638431</v>
+        <v>35.847073216638435</v>
       </c>
       <c r="M33" s="27">
         <v>6</v>
@@ -2168,8 +2176,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1">
-      <c r="A34" s="35"/>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="6"/>
       <c r="C34" s="25" t="s">
         <v>47</v>
@@ -2201,7 +2209,7 @@
       </c>
       <c r="L34" s="28">
         <f t="shared" si="5"/>
-        <v>52.247073216638434</v>
+        <v>37.047073216638438</v>
       </c>
       <c r="M34" s="27">
         <v>6</v>
@@ -2210,8 +2218,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
-      <c r="A35" s="35"/>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="6"/>
       <c r="C35" s="25" t="s">
         <v>48</v>
@@ -2245,7 +2253,7 @@
       </c>
       <c r="L35" s="28">
         <f t="shared" si="5"/>
-        <v>53.247073216638434</v>
+        <v>38.047073216638438</v>
       </c>
       <c r="M35" s="27">
         <v>6</v>
@@ -2254,8 +2262,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="6"/>
@@ -2289,7 +2297,7 @@
       </c>
       <c r="L36" s="28">
         <f t="shared" si="5"/>
-        <v>56.047073216638431</v>
+        <v>40.847073216638435</v>
       </c>
       <c r="M36" s="27">
         <v>6</v>
@@ -2298,8 +2306,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
       <c r="B37" s="6"/>
       <c r="C37" s="29" t="s">
         <v>37</v>
@@ -2333,7 +2341,7 @@
       </c>
       <c r="L37" s="28">
         <f t="shared" si="5"/>
-        <v>59.447073216638429</v>
+        <v>44.247073216638434</v>
       </c>
       <c r="M37" s="27">
         <v>6</v>
@@ -2342,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" thickBot="1">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2365,22 +2373,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2397,6 +2389,22 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2415,7 +2423,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2432,7 +2440,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
